--- a/Peak_Reflected_Pressure/RPDataset4.xlsx
+++ b/Peak_Reflected_Pressure/RPDataset4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\ANN_1D_2\Peak_Reflected_Pressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0843F9-47AC-4749-84CE-9E7E06FAB341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6CC86-3F8B-4D79-B399-C82EDF537393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20810" yWindow="2410" windowWidth="14970" windowHeight="14740" xr2:uid="{BF259440-988C-4470-AFF7-3588F364A8DA}"/>
   </bookViews>
